--- a/trunk/neuralito/ArfGen/docs/Entregas/Informe Final/capitulo 4/ultimo/makaha.xlsx
+++ b/trunk/neuralito/ArfGen/docs/Entregas/Informe Final/capitulo 4/ultimo/makaha.xlsx
@@ -178,7 +178,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-AR" sz="1200" b="0" i="0" baseline="0"/>
-              <a:t>Makaha - Observacion Visual/ Wave Watch 3</a:t>
+              <a:t>Makaha - Observación Visual/ Wave Watch III</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -194,7 +194,7 @@
           <c:x val="5.0128971669717602E-2"/>
           <c:y val="0.16285573489051136"/>
           <c:w val="0.91229087688864363"/>
-          <c:h val="0.42844667523761898"/>
+          <c:h val="0.42844667523761909"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1022,11 +1022,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="32766976"/>
-        <c:axId val="36320000"/>
+        <c:axId val="64643840"/>
+        <c:axId val="64646144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32766976"/>
+        <c:axId val="64643840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,7 +1042,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>Día</a:t>
+                  <a:t>Día de observación</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1062,13 +1062,13 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36320000"/>
+        <c:crossAx val="64646144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36320000"/>
+        <c:axId val="64646144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,7 +1085,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>Altura de ola</a:t>
+                  <a:t>Altura de ola (mts.)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1094,15 +1094,15 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.015525210315703E-3"/>
-              <c:y val="0.29042414159710961"/>
+              <c:x val="3.0155252103157035E-3"/>
+              <c:y val="0.29042414159710966"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32766976"/>
+        <c:crossAx val="64643840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1115,8 +1115,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.74133589770230268"/>
           <c:y val="0.71233526043915962"/>
-          <c:w val="0.24201434347572312"/>
-          <c:h val="0.1631775617263552"/>
+          <c:w val="0.2420143434757232"/>
+          <c:h val="0.16317756172635517"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -1124,7 +1124,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1145,7 +1145,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-AR" sz="1200" b="0" i="0" baseline="0"/>
-              <a:t>Makaha - Observacion Visual/ Clasificador de Soporte Vectorial</a:t>
+              <a:t>Makaha - Observación Visual/ Máquina de Soporte Vectorial</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1161,7 +1161,7 @@
           <c:x val="5.0128971669717602E-2"/>
           <c:y val="0.16285573489051136"/>
           <c:w val="0.91229087688864363"/>
-          <c:h val="0.4284466752376187"/>
+          <c:h val="0.42844667523761887"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1989,11 +1989,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="37157888"/>
-        <c:axId val="37379072"/>
+        <c:axId val="64507904"/>
+        <c:axId val="64509824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37157888"/>
+        <c:axId val="64507904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,7 +2009,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>Día</a:t>
+                  <a:t>Día de observación</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2029,13 +2029,13 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37379072"/>
+        <c:crossAx val="64509824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37379072"/>
+        <c:axId val="64509824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,7 +2052,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>Altura de ola</a:t>
+                  <a:t>Altura de ola (mts.)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2061,15 +2061,15 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.0155252103157022E-3"/>
-              <c:y val="0.2904241415971095"/>
+              <c:x val="3.0155252103157026E-3"/>
+              <c:y val="0.29042414159710955"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37157888"/>
+        <c:crossAx val="64507904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2082,8 +2082,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.74133589770230268"/>
           <c:y val="0.71233526043915962"/>
-          <c:w val="0.24201434347572301"/>
-          <c:h val="0.16317756172635525"/>
+          <c:w val="0.24201434347572306"/>
+          <c:h val="0.16317756172635522"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -2091,7 +2091,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2109,9 +2109,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10048349150099888"/>
-          <c:y val="4.1238940589567868E-2"/>
+          <c:y val="4.1238940589567855E-2"/>
           <c:w val="0.87042860499284569"/>
-          <c:h val="0.75935138208448161"/>
+          <c:h val="0.75935138208448172"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3015,11 +3015,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="42453248"/>
-        <c:axId val="43213952"/>
+        <c:axId val="64522880"/>
+        <c:axId val="70779648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42453248"/>
+        <c:axId val="64522880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -3041,7 +3041,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="es-AR" baseline="0"/>
-                  <a:t>Watch 3</a:t>
+                  <a:t>Watch III (Altura en mts.)</a:t>
                 </a:r>
                 <a:endParaRPr lang="es-AR"/>
               </a:p>
@@ -3061,13 +3061,13 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43213952"/>
+        <c:crossAx val="70779648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43213952"/>
+        <c:axId val="70779648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3085,7 +3085,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>Observacion Visual</a:t>
+                  <a:t>Observación Visual (Altura</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> en </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>mts.)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3094,7 +3102,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42453248"/>
+        <c:crossAx val="64522880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3103,7 +3111,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3121,9 +3129,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10048349150099888"/>
-          <c:y val="4.1238940589567903E-2"/>
+          <c:y val="4.1238940589567882E-2"/>
           <c:w val="0.87042860499284569"/>
-          <c:h val="0.75935138208448116"/>
+          <c:h val="0.75935138208448139"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4219,11 +4227,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="58432128"/>
-        <c:axId val="79672064"/>
+        <c:axId val="70800128"/>
+        <c:axId val="70802048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58432128"/>
+        <c:axId val="70800128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -4245,7 +4253,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="es-AR" baseline="0"/>
-                  <a:t> Clasificador</a:t>
+                  <a:t> SVM (Altura en mts.)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4264,13 +4272,13 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79672064"/>
+        <c:crossAx val="70802048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79672064"/>
+        <c:axId val="70802048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4288,7 +4296,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>Observacion Visual</a:t>
+                  <a:t>Observacion Visual (Altura en mts.)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4297,7 +4305,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58432128"/>
+        <c:crossAx val="70800128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4306,7 +4314,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4724,8 +4732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U79" sqref="U79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
